--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.2688054158593</v>
+        <v>52.269495</v>
       </c>
       <c r="H2">
-        <v>52.2688054158593</v>
+        <v>104.53899</v>
       </c>
       <c r="I2">
-        <v>0.4433330791847657</v>
+        <v>0.4288758502612202</v>
       </c>
       <c r="J2">
-        <v>0.4433330791847657</v>
+        <v>0.3474396247360552</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.410544957623401</v>
+        <v>0.4274105</v>
       </c>
       <c r="N2">
-        <v>0.410544957623401</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O2">
-        <v>0.5571659703646676</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P2">
-        <v>0.5571659703646676</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q2">
-        <v>21.45869450447975</v>
+        <v>22.3405309926975</v>
       </c>
       <c r="R2">
-        <v>21.45869450447975</v>
+        <v>89.36212397079001</v>
       </c>
       <c r="S2">
-        <v>0.247010105258736</v>
+        <v>0.1896568595887868</v>
       </c>
       <c r="T2">
-        <v>0.247010105258736</v>
+        <v>0.1384423384909156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.2688054158593</v>
+        <v>52.269495</v>
       </c>
       <c r="H3">
-        <v>52.2688054158593</v>
+        <v>104.53899</v>
       </c>
       <c r="I3">
-        <v>0.4433330791847657</v>
+        <v>0.4288758502612202</v>
       </c>
       <c r="J3">
-        <v>0.4433330791847657</v>
+        <v>0.3474396247360552</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.326300039128101</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N3">
-        <v>0.326300039128101</v>
+        <v>0.636779</v>
       </c>
       <c r="O3">
-        <v>0.4428340296353323</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P3">
-        <v>0.4428340296353323</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q3">
-        <v>17.05531325237399</v>
+        <v>11.094705585535</v>
       </c>
       <c r="R3">
-        <v>17.05531325237399</v>
+        <v>66.56823351321</v>
       </c>
       <c r="S3">
-        <v>0.1963229739260297</v>
+        <v>0.09418697434284531</v>
       </c>
       <c r="T3">
-        <v>0.1963229739260297</v>
+        <v>0.1031293965191622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.7270533365773</v>
+        <v>52.269495</v>
       </c>
       <c r="H4">
-        <v>25.7270533365773</v>
+        <v>104.53899</v>
       </c>
       <c r="I4">
-        <v>0.2182114873931064</v>
+        <v>0.4288758502612202</v>
       </c>
       <c r="J4">
-        <v>0.2182114873931064</v>
+        <v>0.3474396247360552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.410544957623401</v>
+        <v>0.326844</v>
       </c>
       <c r="N4">
-        <v>0.410544957623401</v>
+        <v>0.653688</v>
       </c>
       <c r="O4">
-        <v>0.5571659703646676</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P4">
-        <v>0.5571659703646676</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q4">
-        <v>10.5621120218401</v>
+        <v>17.08397082378</v>
       </c>
       <c r="R4">
-        <v>10.5621120218401</v>
+        <v>68.33588329512</v>
       </c>
       <c r="S4">
-        <v>0.1215800151180976</v>
+        <v>0.1450320163295881</v>
       </c>
       <c r="T4">
-        <v>0.1215800151180976</v>
+        <v>0.1058678897259773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.7270533365773</v>
+        <v>27.97505033333333</v>
       </c>
       <c r="H5">
-        <v>25.7270533365773</v>
+        <v>83.925151</v>
       </c>
       <c r="I5">
-        <v>0.2182114873931064</v>
+        <v>0.2295377733763979</v>
       </c>
       <c r="J5">
-        <v>0.2182114873931064</v>
+        <v>0.2789286845927703</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.326300039128101</v>
+        <v>0.4274105</v>
       </c>
       <c r="N5">
-        <v>0.326300039128101</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O5">
-        <v>0.4428340296353323</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P5">
-        <v>0.4428340296353323</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q5">
-        <v>8.394738510375914</v>
+        <v>11.95683025049517</v>
       </c>
       <c r="R5">
-        <v>8.394738510375914</v>
+        <v>71.74098150297101</v>
       </c>
       <c r="S5">
-        <v>0.09663147227500883</v>
+        <v>0.1015058628949494</v>
       </c>
       <c r="T5">
-        <v>0.09663147227500883</v>
+        <v>0.1111431645039158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.697855331095488</v>
+        <v>27.97505033333333</v>
       </c>
       <c r="H6">
-        <v>0.697855331095488</v>
+        <v>83.925151</v>
       </c>
       <c r="I6">
-        <v>0.00591906301088325</v>
+        <v>0.2295377733763979</v>
       </c>
       <c r="J6">
-        <v>0.00591906301088325</v>
+        <v>0.2789286845927703</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.410544957623401</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N6">
-        <v>0.410544957623401</v>
+        <v>0.636779</v>
       </c>
       <c r="O6">
-        <v>0.5571659703646676</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P6">
-        <v>0.5571659703646676</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q6">
-        <v>0.2865009873318616</v>
+        <v>5.937974858736555</v>
       </c>
       <c r="R6">
-        <v>0.2865009873318616</v>
+        <v>53.44177372862899</v>
       </c>
       <c r="S6">
-        <v>0.003297900486108377</v>
+        <v>0.05040961937714288</v>
       </c>
       <c r="T6">
-        <v>0.003297900486108377</v>
+        <v>0.08279351250102536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.697855331095488</v>
+        <v>27.97505033333333</v>
       </c>
       <c r="H7">
-        <v>0.697855331095488</v>
+        <v>83.925151</v>
       </c>
       <c r="I7">
-        <v>0.00591906301088325</v>
+        <v>0.2295377733763979</v>
       </c>
       <c r="J7">
-        <v>0.00591906301088325</v>
+        <v>0.2789286845927703</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.326300039128101</v>
+        <v>0.326844</v>
       </c>
       <c r="N7">
-        <v>0.326300039128101</v>
+        <v>0.653688</v>
       </c>
       <c r="O7">
-        <v>0.4428340296353323</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P7">
-        <v>0.4428340296353323</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q7">
-        <v>0.2277102218422116</v>
+        <v>9.143477351148</v>
       </c>
       <c r="R7">
-        <v>0.2277102218422116</v>
+        <v>54.860864106888</v>
       </c>
       <c r="S7">
-        <v>0.002621162524774872</v>
+        <v>0.07762229110430567</v>
       </c>
       <c r="T7">
-        <v>0.002621162524774872</v>
+        <v>0.08499200758782917</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.03490630737376</v>
+        <v>0.7109406666666667</v>
       </c>
       <c r="H8">
-        <v>1.03490630737376</v>
+        <v>2.132822</v>
       </c>
       <c r="I8">
-        <v>0.008777858921117297</v>
+        <v>0.005833331332203332</v>
       </c>
       <c r="J8">
-        <v>0.008777858921117297</v>
+        <v>0.007088521472311936</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.410544957623401</v>
+        <v>0.4274105</v>
       </c>
       <c r="N8">
-        <v>0.410544957623401</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O8">
-        <v>0.5571659703646676</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P8">
-        <v>0.5571659703646676</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q8">
-        <v>0.4248755661049508</v>
+        <v>0.3038635058103333</v>
       </c>
       <c r="R8">
-        <v>0.4248755661049508</v>
+        <v>1.823181034862</v>
       </c>
       <c r="S8">
-        <v>0.004890724283508473</v>
+        <v>0.002579607363605837</v>
       </c>
       <c r="T8">
-        <v>0.004890724283508473</v>
+        <v>0.002824523799826952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.03490630737376</v>
+        <v>0.7109406666666667</v>
       </c>
       <c r="H9">
-        <v>1.03490630737376</v>
+        <v>2.132822</v>
       </c>
       <c r="I9">
-        <v>0.008777858921117297</v>
+        <v>0.005833331332203332</v>
       </c>
       <c r="J9">
-        <v>0.008777858921117297</v>
+        <v>0.007088521472311936</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.326300039128101</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N9">
-        <v>0.326300039128101</v>
+        <v>0.636779</v>
       </c>
       <c r="O9">
-        <v>0.4428340296353323</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P9">
-        <v>0.4428340296353323</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q9">
-        <v>0.3376899685899765</v>
+        <v>0.1509040289264444</v>
       </c>
       <c r="R9">
-        <v>0.3376899685899765</v>
+        <v>1.358136260338</v>
       </c>
       <c r="S9">
-        <v>0.003887134637608823</v>
+        <v>0.001281078960694353</v>
       </c>
       <c r="T9">
-        <v>0.003887134637608823</v>
+        <v>0.002104063237484814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.1975886021623</v>
+        <v>0.7109406666666667</v>
       </c>
       <c r="H10">
-        <v>27.1975886021623</v>
+        <v>2.132822</v>
       </c>
       <c r="I10">
-        <v>0.2306842600565462</v>
+        <v>0.005833331332203332</v>
       </c>
       <c r="J10">
-        <v>0.2306842600565462</v>
+        <v>0.007088521472311936</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.410544957623401</v>
+        <v>0.326844</v>
       </c>
       <c r="N10">
-        <v>0.410544957623401</v>
+        <v>0.653688</v>
       </c>
       <c r="O10">
-        <v>0.5571659703646676</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P10">
-        <v>0.5571659703646676</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q10">
-        <v>11.16583286013342</v>
+        <v>0.232366691256</v>
       </c>
       <c r="R10">
-        <v>11.16583286013342</v>
+        <v>1.394200147536</v>
       </c>
       <c r="S10">
-        <v>0.1285294196022609</v>
+        <v>0.001972645007903143</v>
       </c>
       <c r="T10">
-        <v>0.1285294196022609</v>
+        <v>0.00215993443500017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.1975886021623</v>
+        <v>1.165253333333333</v>
       </c>
       <c r="H11">
-        <v>27.1975886021623</v>
+        <v>3.49576</v>
       </c>
       <c r="I11">
-        <v>0.2306842600565462</v>
+        <v>0.009561007124768556</v>
       </c>
       <c r="J11">
-        <v>0.2306842600565462</v>
+        <v>0.01161830186581401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.326300039128101</v>
+        <v>0.4274105</v>
       </c>
       <c r="N11">
-        <v>0.326300039128101</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O11">
-        <v>0.4428340296353323</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P11">
-        <v>0.4428340296353323</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q11">
-        <v>8.874574225075552</v>
+        <v>0.4980415098266668</v>
       </c>
       <c r="R11">
-        <v>8.874574225075552</v>
+        <v>2.98824905896</v>
       </c>
       <c r="S11">
-        <v>0.1021548404542853</v>
+        <v>0.004228054773159102</v>
       </c>
       <c r="T11">
-        <v>0.1021548404542853</v>
+        <v>0.00462948024658554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.9734196833553</v>
+        <v>1.165253333333333</v>
       </c>
       <c r="H12">
-        <v>10.9734196833553</v>
+        <v>3.49576</v>
       </c>
       <c r="I12">
-        <v>0.09307425143358124</v>
+        <v>0.009561007124768556</v>
       </c>
       <c r="J12">
-        <v>0.09307425143358124</v>
+        <v>0.01161830186581401</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.410544957623401</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N12">
-        <v>0.410544957623401</v>
+        <v>0.636779</v>
       </c>
       <c r="O12">
-        <v>0.5571659703646676</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P12">
-        <v>0.5571659703646676</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q12">
-        <v>4.505082118886896</v>
+        <v>0.2473362841155556</v>
       </c>
       <c r="R12">
-        <v>4.505082118886896</v>
+        <v>2.22602655704</v>
       </c>
       <c r="S12">
-        <v>0.05185780561595635</v>
+        <v>0.002099727303842933</v>
       </c>
       <c r="T12">
-        <v>0.05185780561595635</v>
+        <v>0.003448623515262837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.9734196833553</v>
+        <v>1.165253333333333</v>
       </c>
       <c r="H13">
-        <v>10.9734196833553</v>
+        <v>3.49576</v>
       </c>
       <c r="I13">
-        <v>0.09307425143358124</v>
+        <v>0.009561007124768556</v>
       </c>
       <c r="J13">
-        <v>0.09307425143358124</v>
+        <v>0.01161830186581401</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.326300039128101</v>
+        <v>0.326844</v>
       </c>
       <c r="N13">
-        <v>0.326300039128101</v>
+        <v>0.653688</v>
       </c>
       <c r="O13">
-        <v>0.4428340296353323</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P13">
-        <v>0.4428340296353323</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q13">
-        <v>3.580627272047908</v>
+        <v>0.3808560604800001</v>
       </c>
       <c r="R13">
-        <v>3.580627272047908</v>
+        <v>2.28513636288</v>
       </c>
       <c r="S13">
-        <v>0.04121644581762488</v>
+        <v>0.003233225047766523</v>
       </c>
       <c r="T13">
-        <v>0.04121644581762488</v>
+        <v>0.003540198103965636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>27.28148833333333</v>
+      </c>
+      <c r="H14">
+        <v>81.844465</v>
+      </c>
+      <c r="I14">
+        <v>0.22384703554817</v>
+      </c>
+      <c r="J14">
+        <v>0.2720134392567137</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4274105</v>
+      </c>
+      <c r="N14">
+        <v>0.8548210000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4422185568930271</v>
+      </c>
+      <c r="P14">
+        <v>0.3984644485961792</v>
+      </c>
+      <c r="Q14">
+        <v>11.66039456929417</v>
+      </c>
+      <c r="R14">
+        <v>69.962367415765</v>
+      </c>
+      <c r="S14">
+        <v>0.09898931302489386</v>
+      </c>
+      <c r="T14">
+        <v>0.1083876850841767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>27.28148833333333</v>
+      </c>
+      <c r="H15">
+        <v>81.844465</v>
+      </c>
+      <c r="I15">
+        <v>0.22384703554817</v>
+      </c>
+      <c r="J15">
+        <v>0.2720134392567137</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2122596666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.636779</v>
+      </c>
+      <c r="O15">
+        <v>0.2196136114576696</v>
+      </c>
+      <c r="P15">
+        <v>0.2968268129966699</v>
+      </c>
+      <c r="Q15">
+        <v>5.790759619803889</v>
+      </c>
+      <c r="R15">
+        <v>52.116836578235</v>
+      </c>
+      <c r="S15">
+        <v>0.04915985589082696</v>
+      </c>
+      <c r="T15">
+        <v>0.0807408822668336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>27.28148833333333</v>
+      </c>
+      <c r="H16">
+        <v>81.844465</v>
+      </c>
+      <c r="I16">
+        <v>0.22384703554817</v>
+      </c>
+      <c r="J16">
+        <v>0.2720134392567137</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.326844</v>
+      </c>
+      <c r="N16">
+        <v>0.653688</v>
+      </c>
+      <c r="O16">
+        <v>0.3381678316493033</v>
+      </c>
+      <c r="P16">
+        <v>0.304708738407151</v>
+      </c>
+      <c r="Q16">
+        <v>8.916790772820001</v>
+      </c>
+      <c r="R16">
+        <v>53.50074463692</v>
+      </c>
+      <c r="S16">
+        <v>0.07569786663244915</v>
+      </c>
+      <c r="T16">
+        <v>0.08288487190570343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.473357</v>
+      </c>
+      <c r="H17">
+        <v>24.946714</v>
+      </c>
+      <c r="I17">
+        <v>0.10234500235724</v>
+      </c>
+      <c r="J17">
+        <v>0.08291142807633491</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4274105</v>
+      </c>
+      <c r="N17">
+        <v>0.8548210000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.4422185568930271</v>
+      </c>
+      <c r="P17">
+        <v>0.3984644485961792</v>
+      </c>
+      <c r="Q17">
+        <v>5.331243752048501</v>
+      </c>
+      <c r="R17">
+        <v>21.324975008194</v>
+      </c>
+      <c r="S17">
+        <v>0.04525885924763212</v>
+      </c>
+      <c r="T17">
+        <v>0.03303725647075856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>12.473357</v>
+      </c>
+      <c r="H18">
+        <v>24.946714</v>
+      </c>
+      <c r="I18">
+        <v>0.10234500235724</v>
+      </c>
+      <c r="J18">
+        <v>0.08291142807633491</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2122596666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.636779</v>
+      </c>
+      <c r="O18">
+        <v>0.2196136114576696</v>
+      </c>
+      <c r="P18">
+        <v>0.2968268129966699</v>
+      </c>
+      <c r="Q18">
+        <v>2.647590599034333</v>
+      </c>
+      <c r="R18">
+        <v>15.885543594206</v>
+      </c>
+      <c r="S18">
+        <v>0.02247635558231718</v>
+      </c>
+      <c r="T18">
+        <v>0.02461033495690111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>12.473357</v>
+      </c>
+      <c r="H19">
+        <v>24.946714</v>
+      </c>
+      <c r="I19">
+        <v>0.10234500235724</v>
+      </c>
+      <c r="J19">
+        <v>0.08291142807633491</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.326844</v>
+      </c>
+      <c r="N19">
+        <v>0.653688</v>
+      </c>
+      <c r="O19">
+        <v>0.3381678316493033</v>
+      </c>
+      <c r="P19">
+        <v>0.304708738407151</v>
+      </c>
+      <c r="Q19">
+        <v>4.076841895308</v>
+      </c>
+      <c r="R19">
+        <v>16.307367581232</v>
+      </c>
+      <c r="S19">
+        <v>0.03460978752729068</v>
+      </c>
+      <c r="T19">
+        <v>0.02526383664867524</v>
       </c>
     </row>
   </sheetData>
